--- a/Dispositivos.xlsx
+++ b/Dispositivos.xlsx
@@ -4,7 +4,7 @@
   <fileSharing userName="e3cor" readOnlyRecommended="0"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dispocitivos" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +17,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dispocitivos!$A$3:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Control!$A$2:$L$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Control!$A$2:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Materiales!$A$2:$F$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dispocitivos!$A$3:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Control!$A$2:$L$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Control!$A$2:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Materiales!$A$2:$F$71</definedName>
   </definedNames>
   <calcPr/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
   <si>
     <t xml:space="preserve">Numero de tag</t>
   </si>
@@ -621,214 +621,232 @@
     <t xml:space="preserve"> +A2 -S103</t>
   </si>
   <si>
+    <t xml:space="preserve">Manual  box  feeding button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +A2 -S105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual load beld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +A2 -S106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Clamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency stop elevator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interruptor de Posición / Final de Carrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor (General / Proximidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +EL -S208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +FD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +FD -B00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +LB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +LB -S01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency stop load beld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +LB -S200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +LB Y00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turn valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobina solenoide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +LB Y01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">push valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +PL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +PL -S201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +PL -S202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +PL -Y02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open plate valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +PL -Y03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clamp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +A2-H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bocina / Sirena / Zumbador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outpút Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Analog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output Analog</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red: SN</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entradas Digitales</t>
+  </si>
+  <si>
+    <t>Nodo:SN</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPU 1215C X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot: - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borne en </t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion equipo</t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 0</t>
+  </si>
+  <si>
+    <t>I0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 1</t>
+  </si>
+  <si>
+    <t>I0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 2</t>
+  </si>
+  <si>
+    <t>I0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 3</t>
+  </si>
+  <si>
+    <t>I0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 4</t>
+  </si>
+  <si>
+    <t>I0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 5</t>
+  </si>
+  <si>
+    <t>I0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 6</t>
+  </si>
+  <si>
+    <t>I0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.a 7</t>
+  </si>
+  <si>
+    <t>I0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.b 0</t>
+  </si>
+  <si>
+    <t>I1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> +A2 -S104</t>
   </si>
   <si>
-    <t xml:space="preserve"> +A2 -S105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual load beld</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +A2 -S106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual Clamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency stop elevator</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interruptor de Posición / Final de Carrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor (General / Proximidad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +EL -S208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +FD </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +FD -B00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +LB </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +LB -S01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency stop load beld</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +LB -S200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +LB Y00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Turn valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobina solenoide</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +LB Y01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">push valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +PL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +PL -S201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +PL -S202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +PL -Y02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open plate valve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +PL -Y03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clamp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outpút Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output Analog</t>
-  </si>
-  <si>
-    <t>Modulo</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red: SN</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entradas Digitales</t>
-  </si>
-  <si>
-    <t>Nodo:SN</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPU 1215C X11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slot: - A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borne en </t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion equipo</t>
-  </si>
-  <si>
-    <t>Controlador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 0</t>
-  </si>
-  <si>
-    <t>I0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 1</t>
-  </si>
-  <si>
-    <t>I0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 2</t>
-  </si>
-  <si>
-    <t>I0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 3</t>
-  </si>
-  <si>
-    <t>I0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 4</t>
-  </si>
-  <si>
-    <t>I0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 5</t>
-  </si>
-  <si>
-    <t>I0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 6</t>
-  </si>
-  <si>
-    <t>I0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.a 7</t>
-  </si>
-  <si>
-    <t>I0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI.b 0</t>
-  </si>
-  <si>
-    <t>I1.0</t>
+    <t xml:space="preserve">Manual box feeding button</t>
   </si>
   <si>
     <t xml:space="preserve">DI.b 1</t>
@@ -849,51 +867,75 @@
     <t>I1.3</t>
   </si>
   <si>
+    <t xml:space="preserve"> +A1 -S109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual pallet feeder</t>
+  </si>
+  <si>
     <t xml:space="preserve">DI.b 4</t>
   </si>
   <si>
     <t>I1.4</t>
   </si>
   <si>
+    <t xml:space="preserve"> +A1 -S110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual load pallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI.b 5</t>
+  </si>
+  <si>
+    <t>I1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +A1 -S111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual exit conveyor</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM 1223, 16DI/16DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot: - A2</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>I2.0</t>
+  </si>
+  <si>
+    <t>I2.1</t>
+  </si>
+  <si>
+    <t>I2.2</t>
+  </si>
+  <si>
+    <t>I2.3</t>
+  </si>
+  <si>
+    <t>I2.4</t>
+  </si>
+  <si>
+    <t>I2.5</t>
+  </si>
+  <si>
+    <t>I2.6</t>
+  </si>
+  <si>
+    <t>I2.7</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>IO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM 1223, 16DI/16DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slot: - A2</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>I2.0</t>
-  </si>
-  <si>
-    <t>I2.1</t>
-  </si>
-  <si>
-    <t>I2.2</t>
-  </si>
-  <si>
-    <t>I2.3</t>
-  </si>
-  <si>
-    <t>I2.4</t>
-  </si>
-  <si>
-    <t>I2.5</t>
-  </si>
-  <si>
-    <t>I2.6</t>
-  </si>
-  <si>
-    <t>I2.7</t>
-  </si>
-  <si>
     <t>I3.0</t>
   </si>
   <si>
@@ -909,9 +951,6 @@
     <t>I3.4</t>
   </si>
   <si>
-    <t xml:space="preserve">DI.b 5</t>
-  </si>
-  <si>
     <t>I3.5</t>
   </si>
   <si>
@@ -966,9 +1005,18 @@
     <t>I5.2</t>
   </si>
   <si>
+    <t xml:space="preserve"> +A2 -S107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Elevator up</t>
+  </si>
+  <si>
     <t>I5.3</t>
   </si>
   <si>
+    <t xml:space="preserve"> +A2 -S108</t>
+  </si>
+  <si>
     <t>I5.4</t>
   </si>
   <si>
@@ -1509,6 +1557,18 @@
     <t xml:space="preserve">Panel KTP1200 Basic color PN</t>
   </si>
   <si>
+    <t xml:space="preserve"> +A1 -H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baliza electronica color ambar</t>
+  </si>
+  <si>
+    <t>XVR13B05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baliza, Naranja, Giratoria, 3W, 24VDC, IP66, Diámetro 130mm, Profundidad Ext. 179mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aire Acondicionado</t>
   </si>
   <si>
@@ -1648,9 +1708,6 @@
   </si>
   <si>
     <t xml:space="preserve">10 AWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bocina / Sirena / Zumbador</t>
   </si>
   <si>
     <t xml:space="preserve">Contacto Auxiliar NO</t>
@@ -2242,27 +2299,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="DD-MMM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -2272,12 +2326,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2382,6 +2440,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -2405,7 +2469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2415,130 +2479,123 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -2548,150 +2605,150 @@
       <right style="none"/>
       <top style="none"/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -2699,42 +2756,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
@@ -2746,83 +2803,143 @@
       <right style="none"/>
       <top style="none"/>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="dashed">
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </right>
-      <top style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="none"/>
       <bottom style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dashed">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -2846,7 +2963,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -2860,7 +2977,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="145">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2892,7 +3009,7 @@
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="6" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,10 +3024,10 @@
     <xf fontId="2" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="9" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2962,10 +3079,10 @@
     <xf fontId="1" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="3" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,7 +3093,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2984,7 +3101,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="15" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2995,8 +3112,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="15" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="11" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="11" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3005,8 +3122,11 @@
     </xf>
     <xf fontId="0" fillId="11" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="8" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3014,10 +3134,7 @@
     <xf fontId="2" fillId="8" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="8" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="8" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3038,29 +3155,33 @@
     <xf fontId="1" fillId="17" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="18" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="6" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="6" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="6" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="19" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="18" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="6" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="6" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3069,117 +3190,138 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="19" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="19" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="20" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="19" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="19" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="20" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="20" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="21" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="20" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="16" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="18" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="18" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="17" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="19" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="19" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="22" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="21" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="1" fillId="22" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="21" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="22" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="22" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="21" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="21" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="21" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="21" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="20" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="20" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="20" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="20" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="21" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="19" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="20" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="20" borderId="33" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="21" borderId="35" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="8" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3203,13 +3345,28 @@
     <xf fontId="1" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5139,7 +5296,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DB0083-00D3-4406-917A-00050047006A}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A0026-0054-45BA-A62C-00CF001E0019}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0.1</xm:f>
           </x14:formula1>
@@ -5148,7 +5305,7 @@
           </x14:formula2>
           <xm:sqref>F1:F4 F6 F9:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BB006A-00A0-4339-BDC0-0017007B008D}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A1001C-002C-4639-BC3F-00C200C10012}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0.1</xm:f>
           </x14:formula1>
@@ -5157,7 +5314,7 @@
           </x14:formula2>
           <xm:sqref>G1:G4 G6 G9:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00640096-000C-4B33-921D-0093008100A5}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00660063-00A0-4681-B766-0076001B0009}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0.1</xm:f>
           </x14:formula1>
@@ -5166,7 +5323,7 @@
           </x14:formula2>
           <xm:sqref>H1:H2 H9:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002600C0-0006-4B24-B0FD-002A00F500AB}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004D00A6-004B-4C31-BD40-008900750067}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -5175,7 +5332,7 @@
           </x14:formula2>
           <xm:sqref>I1:I2 I23:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F70016-00FC-4113-AD33-00C000B60028}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A0003-0050-41C1-91D3-00D100600026}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0.1</xm:f>
           </x14:formula1>
@@ -5184,7 +5341,7 @@
           </x14:formula2>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F000BA-0065-4257-8C7B-00ED006500BC}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0037008B-00D1-4EF7-9A03-00D5002D0056}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0.1</xm:f>
           </x14:formula1>
@@ -5262,7 +5419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" s="53" customFormat="1" hidden="1">
+    <row r="3" s="53" customFormat="1">
       <c r="A3" s="63" t="s">
         <v>116</v>
       </c>
@@ -5288,7 +5445,7 @@
       <c r="K3" s="63"/>
       <c r="L3" s="63"/>
     </row>
-    <row r="4" s="53" customFormat="1" hidden="1">
+    <row r="4" s="53" customFormat="1">
       <c r="A4" s="65" t="s">
         <v>116</v>
       </c>
@@ -5340,7 +5497,7 @@
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
     </row>
-    <row r="6" s="53" customFormat="1" hidden="1">
+    <row r="6" s="53" customFormat="1">
       <c r="A6" s="63" t="s">
         <v>116</v>
       </c>
@@ -5392,7 +5549,7 @@
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" s="69" customFormat="1" hidden="1">
+    <row r="8" s="69" customFormat="1">
       <c r="A8" s="63" t="s">
         <v>116</v>
       </c>
@@ -5444,7 +5601,7 @@
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
     </row>
-    <row r="10" s="69" customFormat="1" hidden="1">
+    <row r="10" s="69" customFormat="1">
       <c r="A10" s="63" t="s">
         <v>116</v>
       </c>
@@ -5496,7 +5653,7 @@
       <c r="K11" s="63"/>
       <c r="L11" s="63"/>
     </row>
-    <row r="12" s="69" customFormat="1" hidden="1">
+    <row r="12" s="69" customFormat="1">
       <c r="A12" s="63" t="s">
         <v>116</v>
       </c>
@@ -5548,7 +5705,7 @@
       <c r="K13" s="63"/>
       <c r="L13" s="63"/>
     </row>
-    <row r="14" s="69" customFormat="1" hidden="1">
+    <row r="14" s="69" customFormat="1">
       <c r="A14" s="63" t="s">
         <v>116</v>
       </c>
@@ -5808,7 +5965,7 @@
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
     </row>
-    <row r="24" s="53" customFormat="1" hidden="1">
+    <row r="24" s="53" customFormat="1">
       <c r="A24" s="63" t="s">
         <v>116</v>
       </c>
@@ -5830,7 +5987,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
     </row>
-    <row r="25" s="43" customFormat="1" hidden="1">
+    <row r="25" s="43" customFormat="1">
       <c r="A25" s="65" t="s">
         <v>116</v>
       </c>
@@ -5856,7 +6013,7 @@
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
     </row>
-    <row r="26" s="53" customFormat="1" hidden="1">
+    <row r="26" s="53" customFormat="1">
       <c r="A26" s="63" t="s">
         <v>116</v>
       </c>
@@ -5882,7 +6039,7 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
     </row>
-    <row r="27" s="53" customFormat="1" hidden="1">
+    <row r="27" s="53" customFormat="1">
       <c r="A27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5908,7 +6065,7 @@
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
     </row>
-    <row r="28" s="53" customFormat="1" hidden="1">
+    <row r="28" s="53" customFormat="1">
       <c r="A28" s="63" t="s">
         <v>116</v>
       </c>
@@ -5934,7 +6091,7 @@
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
     </row>
-    <row r="29" s="69" customFormat="1" hidden="1">
+    <row r="29" s="69" customFormat="1">
       <c r="A29" s="63" t="s">
         <v>116</v>
       </c>
@@ -5960,7 +6117,7 @@
       <c r="K29" s="63"/>
       <c r="L29" s="63"/>
     </row>
-    <row r="30" s="69" customFormat="1" hidden="1">
+    <row r="30" s="69" customFormat="1">
       <c r="A30" s="63" t="s">
         <v>116</v>
       </c>
@@ -5986,7 +6143,7 @@
       <c r="K30" s="63"/>
       <c r="L30" s="63"/>
     </row>
-    <row r="31" s="43" customFormat="1" hidden="1">
+    <row r="31" s="43" customFormat="1">
       <c r="A31" s="63" t="s">
         <v>116</v>
       </c>
@@ -6012,7 +6169,7 @@
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
     </row>
-    <row r="32" s="47" customFormat="1" hidden="1">
+    <row r="32" s="47" customFormat="1">
       <c r="A32" s="63" t="s">
         <v>175</v>
       </c>
@@ -6038,7 +6195,7 @@
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
     </row>
-    <row r="33" s="47" customFormat="1" hidden="1">
+    <row r="33" s="47" customFormat="1">
       <c r="A33" s="70" t="s">
         <v>177</v>
       </c>
@@ -6064,7 +6221,7 @@
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" s="53" customFormat="1" hidden="1">
+    <row r="34" s="53" customFormat="1">
       <c r="A34" s="70" t="s">
         <v>177</v>
       </c>
@@ -6090,7 +6247,7 @@
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
     </row>
-    <row r="35" s="47" customFormat="1" hidden="1">
+    <row r="35" s="47" customFormat="1">
       <c r="A35" s="70" t="s">
         <v>177</v>
       </c>
@@ -6116,7 +6273,7 @@
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" s="47" customFormat="1" hidden="1">
+    <row r="36" s="47" customFormat="1">
       <c r="A36" s="70" t="s">
         <v>177</v>
       </c>
@@ -6142,7 +6299,7 @@
       <c r="K36" s="70"/>
       <c r="L36" s="70"/>
     </row>
-    <row r="37" s="53" customFormat="1" hidden="1">
+    <row r="37" s="53" customFormat="1">
       <c r="A37" s="70" t="s">
         <v>177</v>
       </c>
@@ -6168,7 +6325,7 @@
       <c r="K37" s="70"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" s="69" customFormat="1" hidden="1">
+    <row r="38" s="69" customFormat="1">
       <c r="A38" s="70" t="s">
         <v>177</v>
       </c>
@@ -6194,7 +6351,7 @@
       <c r="K38" s="70"/>
       <c r="L38" s="70"/>
     </row>
-    <row r="39" s="52" customFormat="1" hidden="1">
+    <row r="39" s="52" customFormat="1">
       <c r="A39" s="70" t="s">
         <v>177</v>
       </c>
@@ -6220,7 +6377,7 @@
       <c r="K39" s="70"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" s="52" customFormat="1" hidden="1">
+    <row r="40" s="52" customFormat="1">
       <c r="A40" s="70" t="s">
         <v>177</v>
       </c>
@@ -6246,7 +6403,7 @@
       <c r="K40" s="70"/>
       <c r="L40" s="70"/>
     </row>
-    <row r="41" s="53" customFormat="1" hidden="1">
+    <row r="41" s="53" customFormat="1">
       <c r="A41" s="70" t="s">
         <v>177</v>
       </c>
@@ -6254,7 +6411,7 @@
         <v>195</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>194</v>
@@ -6272,15 +6429,15 @@
       <c r="K41" s="70"/>
       <c r="L41" s="70"/>
     </row>
-    <row r="42" s="53" customFormat="1" hidden="1">
+    <row r="42" s="53" customFormat="1">
       <c r="A42" s="70" t="s">
         <v>177</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="D42" s="70" t="s">
         <v>194</v>
@@ -6298,15 +6455,15 @@
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
     </row>
-    <row r="43" s="53" customFormat="1" hidden="1">
+    <row r="43" s="53" customFormat="1">
       <c r="A43" s="70" t="s">
         <v>177</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D43" s="70" t="s">
         <v>194</v>
@@ -6324,44 +6481,44 @@
       <c r="K43" s="70"/>
       <c r="L43" s="70"/>
     </row>
-    <row r="44" s="53" customFormat="1" hidden="1">
-      <c r="A44" s="70" t="s">
-        <v>177</v>
+    <row r="44" s="53" customFormat="1">
+      <c r="A44" s="54" t="s">
+        <v>201</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="54">
         <v>1</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-    </row>
-    <row r="45" s="53" customFormat="1" hidden="1">
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+    </row>
+    <row r="45" s="53" customFormat="1">
       <c r="A45" s="54" t="s">
         <v>201</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E45" s="54" t="s">
         <v>120</v>
@@ -6376,18 +6533,18 @@
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
     </row>
-    <row r="46" s="53" customFormat="1" hidden="1">
+    <row r="46" s="52" customFormat="1">
       <c r="A46" s="54" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E46" s="54" t="s">
         <v>120</v>
@@ -6402,15 +6559,15 @@
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
     </row>
-    <row r="47" s="52" customFormat="1" hidden="1">
+    <row r="47" s="52" customFormat="1">
       <c r="A47" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>207</v>
@@ -6428,15 +6585,15 @@
       <c r="K47" s="54"/>
       <c r="L47" s="54"/>
     </row>
-    <row r="48" s="52" customFormat="1" hidden="1">
+    <row r="48" s="52" customFormat="1">
       <c r="A48" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>207</v>
@@ -6454,15 +6611,15 @@
       <c r="K48" s="54"/>
       <c r="L48" s="54"/>
     </row>
-    <row r="49" s="52" customFormat="1" hidden="1">
+    <row r="49" s="53" customFormat="1">
       <c r="A49" s="54" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D49" s="54" t="s">
         <v>207</v>
@@ -6480,15 +6637,15 @@
       <c r="K49" s="54"/>
       <c r="L49" s="54"/>
     </row>
-    <row r="50" s="53" customFormat="1" hidden="1">
+    <row r="50" s="53" customFormat="1">
       <c r="A50" s="54" t="s">
         <v>201</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" s="64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="54" t="s">
         <v>207</v>
@@ -6506,70 +6663,70 @@
       <c r="K50" s="54"/>
       <c r="L50" s="54"/>
     </row>
-    <row r="51" s="53" customFormat="1" hidden="1">
-      <c r="A51" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>211</v>
+    <row r="51" s="53" customFormat="1">
+      <c r="A51" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="54">
+      <c r="F51" s="40">
         <v>1</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-    </row>
-    <row r="52" s="53" customFormat="1" hidden="1">
-      <c r="A52" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>213</v>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" s="52" customFormat="1">
+      <c r="A52" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>215</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="44">
         <v>1</v>
       </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-    </row>
-    <row r="53" s="52" customFormat="1" hidden="1">
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+    </row>
+    <row r="53" s="52" customFormat="1">
       <c r="A53" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>120</v>
@@ -6584,25 +6741,23 @@
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
     </row>
-    <row r="54" s="52" customFormat="1" hidden="1">
+    <row r="54" s="53" customFormat="1">
       <c r="A54" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>45</v>
+      <c r="B54" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>219</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="44">
-        <v>1</v>
-      </c>
+      <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
@@ -6610,15 +6765,15 @@
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
     </row>
-    <row r="55" s="53" customFormat="1" hidden="1">
+    <row r="55" s="53" customFormat="1">
       <c r="A55" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>220</v>
@@ -6634,39 +6789,41 @@
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
     </row>
-    <row r="56" s="53" customFormat="1" hidden="1">
-      <c r="A56" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="44" t="s">
+    <row r="56" s="53" customFormat="1">
+      <c r="A56" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-    </row>
-    <row r="57" s="53" customFormat="1" hidden="1">
+      <c r="F56" s="71">
+        <v>1</v>
+      </c>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+    </row>
+    <row r="57" s="53" customFormat="1">
       <c r="A57" s="71" t="s">
         <v>223</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D57" s="71" t="s">
         <v>207</v>
@@ -6684,25 +6841,23 @@
       <c r="K57" s="71"/>
       <c r="L57" s="71"/>
     </row>
-    <row r="58" s="53" customFormat="1" hidden="1">
+    <row r="58" s="53" customFormat="1">
       <c r="A58" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>13</v>
+      <c r="B58" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>227</v>
       </c>
       <c r="D58" s="71" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E58" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="71">
-        <v>1</v>
-      </c>
+      <c r="F58" s="71"/>
       <c r="G58" s="71"/>
       <c r="H58" s="71"/>
       <c r="I58" s="71"/>
@@ -6710,15 +6865,15 @@
       <c r="K58" s="71"/>
       <c r="L58" s="71"/>
     </row>
-    <row r="59" s="53" customFormat="1" hidden="1">
+    <row r="59" s="53" customFormat="1">
       <c r="A59" s="71" t="s">
         <v>223</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D59" s="71" t="s">
         <v>220</v>
@@ -6734,34 +6889,36 @@
       <c r="K59" s="71"/>
       <c r="L59" s="71"/>
     </row>
-    <row r="60" s="53" customFormat="1" hidden="1">
-      <c r="A60" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="E60" s="71" t="s">
+    <row r="60" s="72" customFormat="1">
+      <c r="A60" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73">
+        <v>1</v>
+      </c>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
     </row>
     <row r="61">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -6773,10 +6930,17 @@
       <c r="L61" s="14"/>
     </row>
     <row r="62">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="14"/>
+      <c r="A62" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="77">
+        <f>SUM(F:F)</f>
+        <v>33</v>
+      </c>
+      <c r="D62" s="78"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
@@ -6787,17 +6951,17 @@
       <c r="L62" s="14"/>
     </row>
     <row r="63">
-      <c r="A63" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="75">
-        <f>SUM(F:F)</f>
-        <v>34</v>
-      </c>
-      <c r="D63" s="76"/>
+      <c r="A63" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="77">
+        <f>SUM(G:G)</f>
+        <v>19</v>
+      </c>
+      <c r="D63" s="78"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -6808,17 +6972,17 @@
       <c r="L63" s="14"/>
     </row>
     <row r="64">
-      <c r="A64" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="B64" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="C64" s="75">
-        <f>SUM(G:G)</f>
-        <v>18</v>
-      </c>
-      <c r="D64" s="76"/>
+      <c r="A64" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="77">
+        <f>SUM(H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="78"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
@@ -6829,17 +6993,17 @@
       <c r="L64" s="14"/>
     </row>
     <row r="65">
-      <c r="A65" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="75">
-        <f>SUM(H:H)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="76"/>
+      <c r="A65" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="77">
+        <f>SUM(I:I)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="78"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -6850,17 +7014,10 @@
       <c r="L65" s="14"/>
     </row>
     <row r="66">
-      <c r="A66" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="B66" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="75">
-        <f>SUM(I:I)</f>
-        <v>1</v>
-      </c>
-      <c r="D66" s="76"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -6871,9 +7028,9 @@
       <c r="L66" s="14"/>
     </row>
     <row r="67">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -7738,41 +7895,17 @@
       <c r="K128" s="14"/>
       <c r="L128" s="14"/>
     </row>
-    <row r="129">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:L60">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="+A1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters and="1">
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="F3:F60">
+  <autoFilter ref="A2:L59">
+    <sortState ref="F3:F59">
       <sortCondition ref="F2:F60"/>
     </sortState>
   </autoFilter>
   <dataValidations count="25" disablePrompts="0">
-    <dataValidation sqref="D3 D4 D5 D7 D8 D9 D10 D11 D12 D13 D16 D17 D18 D25 D26 D27 D32 D35 D38 D39 D40 D41 D42 D43 D47 D48 D49 D50 D53 D54 D55 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="D3 D4 D5 D7 D8 D9 D10 D11 D12 D13 D16 D17 D18 D25 D26 D27 D32 D35 D38 D39 D40 D41 D42 D46 D47 D48 D49 D52 D53 D54 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$52</formula1>
     </dataValidation>
-    <dataValidation sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E16 E17 E18 E19 E20 E21 E22 E24 E25 E26 E27 E28 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E16 E17 E18 E19 E20 E21 E22 E24 E25 E26 E27 E28 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$K$4:$K$19</formula1>
     </dataValidation>
     <dataValidation sqref="D6" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
@@ -7826,22 +7959,22 @@
     <dataValidation sqref="D36 D37" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$54</formula1>
     </dataValidation>
-    <dataValidation sqref="D44" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="D43" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$55</formula1>
     </dataValidation>
-    <dataValidation sqref="D45 D46" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="D44 D45" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>Data!$I$4:$I$55</formula1>
+    </dataValidation>
+    <dataValidation sqref="D50" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$55</formula1>
     </dataValidation>
     <dataValidation sqref="D51" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$55</formula1>
     </dataValidation>
-    <dataValidation sqref="D52" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+    <dataValidation sqref="D55" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$55</formula1>
     </dataValidation>
     <dataValidation sqref="D56" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-      <formula1>Data!$I$4:$I$55</formula1>
-    </dataValidation>
-    <dataValidation sqref="D57" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
       <formula1>Data!$I$4:$I$55</formula1>
     </dataValidation>
   </dataValidations>
@@ -7855,7 +7988,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A61" zoomScale="100" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="A7" zoomScale="100" workbookViewId="0">
       <selection activeCell="D127" activeCellId="0" sqref="D127"/>
     </sheetView>
   </sheetViews>
@@ -7863,1664 +7996,1682 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.276786"/>
     <col customWidth="1" min="2" max="2" width="11.276786"/>
-    <col customWidth="1" min="3" max="3" style="79" width="16.276786000000001"/>
-    <col customWidth="1" min="4" max="4" style="79" width="39.848213999999999"/>
+    <col customWidth="1" min="3" max="3" style="81" width="16.276786000000001"/>
+    <col customWidth="1" min="4" max="4" style="81" width="39.848213999999999"/>
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>236</v>
       </c>
+      <c r="B3" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="85" t="s">
+      <c r="B24" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="106" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="102" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="102" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="106" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="103" t="s">
+      <c r="A27" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D28" s="96" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="98" t="s">
+    <row r="29">
+      <c r="A29" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="98" t="s">
+      <c r="B40" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="94" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>286</v>
-      </c>
-      <c r="C34" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="98" t="s">
+      <c r="B41" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B39" s="98" t="s">
-        <v>291</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="96" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" s="81" t="s">
+      <c r="C45" s="84"/>
+      <c r="D45" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="102" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="85" t="s">
+      <c r="B46" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="102" t="s">
-        <v>299</v>
+      <c r="C46" s="84"/>
+      <c r="D46" s="106" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="84"/>
+      <c r="D47" s="106" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="B49" s="104" t="s">
+      <c r="A49" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C55" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="98" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="C49" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="94" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="B50" s="104" t="s">
-        <v>301</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="94" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B51" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="94" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="104" t="s">
-        <v>303</v>
-      </c>
-      <c r="C52" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B53" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="C53" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" s="94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" s="104" t="s">
+      <c r="D62" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="C56" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" s="94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B57" s="104" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B58" s="104" t="s">
+      <c r="B64" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D64" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D58" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B59" s="104" t="s">
-        <v>310</v>
-      </c>
-      <c r="C59" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="C60" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B61" s="104" t="s">
-        <v>312</v>
-      </c>
-      <c r="C61" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="104" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="96" t="s">
-        <v>294</v>
-      </c>
-      <c r="B63" s="104" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="104" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="83" t="s">
+      <c r="B65" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D65" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="84" t="s">
+      <c r="B67" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="B67" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="83" t="s">
+      <c r="C67" s="114"/>
+      <c r="D67" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" s="114"/>
+      <c r="D68" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="102" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="87" t="s">
+      <c r="C69" s="114"/>
+      <c r="D69" s="106" t="s">
         <v>244</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D69" s="106" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="91"/>
+      <c r="D70" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="B71" s="108" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" s="109" t="s">
+      <c r="A71" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="91"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="93"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="116" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" s="117" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="96" t="s">
-        <v>320</v>
-      </c>
-      <c r="B72" s="111" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="112" t="s">
+      <c r="D72" s="119" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="112" t="s">
+      <c r="D73" s="121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="96" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="C73" s="112" t="s">
+    <row r="74">
+      <c r="A74" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" s="120" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="112" t="s">
+      <c r="D74" s="121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="B74" s="111" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="112" t="s">
+    <row r="75">
+      <c r="A75" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="120" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="D75" s="121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="96" t="s">
-        <v>326</v>
-      </c>
-      <c r="B75" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="C75" s="112" t="s">
+    <row r="76">
+      <c r="A76" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="112" t="s">
+      <c r="D76" s="121" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="96" t="s">
-        <v>328</v>
-      </c>
-      <c r="B76" s="111" t="s">
-        <v>329</v>
-      </c>
-      <c r="C76" s="112" t="s">
+    <row r="77">
+      <c r="A77" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="112" t="s">
+      <c r="D77" s="121" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="96" t="s">
-        <v>330</v>
-      </c>
-      <c r="B77" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="C77" s="112" t="s">
+    <row r="78">
+      <c r="A78" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="112" t="s">
+      <c r="D78" s="121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B78" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="C78" s="113" t="s">
+    <row r="79">
+      <c r="A79" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="113" t="s">
+      <c r="D79" s="122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="96" t="s">
-        <v>334</v>
-      </c>
-      <c r="B79" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="C79" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="80">
-      <c r="A80" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="B80" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="C80" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D80" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="105"/>
-      <c r="D82" s="102" t="s">
+      <c r="A80" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="C80" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="120" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="114"/>
+      <c r="D83" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="105"/>
-      <c r="D83" s="102" t="s">
+    </row>
+    <row r="84">
+      <c r="A84" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="85" t="s">
+      <c r="B84" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="B84" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="105"/>
-      <c r="D84" s="102" t="s">
-        <v>277</v>
+      <c r="C84" s="114"/>
+      <c r="D84" s="106" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B85" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="87" t="s">
-        <v>278</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="114"/>
       <c r="D85" s="106" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B86" s="89"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="B86" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="B87" s="98" t="s">
+      <c r="A87" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" s="91"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" s="123" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="121" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="D89" s="121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="D87" s="112" t="s">
+      <c r="B90" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" s="121" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="121" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="98" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="96" t="s">
-        <v>320</v>
-      </c>
-      <c r="B88" s="98" t="s">
-        <v>341</v>
-      </c>
-      <c r="C88" s="112" t="s">
+      <c r="B91" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="121" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="121" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="98" t="s">
         <v>342</v>
       </c>
-      <c r="D88" s="112" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="96" t="s">
-        <v>322</v>
-      </c>
-      <c r="B89" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="C89" s="112" t="s">
+      <c r="B92" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" s="121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="D89" s="112" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90" s="98" t="s">
+      <c r="B93" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" s="121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="C90" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="D90" s="112" t="s">
+      <c r="B94" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="D94" s="122" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="98" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="96" t="s">
-        <v>326</v>
-      </c>
-      <c r="B91" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="112" t="s">
+      <c r="B95" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="98" t="s">
         <v>350</v>
       </c>
-      <c r="D91" s="112" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="96" t="s">
-        <v>328</v>
-      </c>
-      <c r="B92" s="98" t="s">
+      <c r="B96" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" s="124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="C92" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="D92" s="112" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="96" t="s">
-        <v>330</v>
-      </c>
-      <c r="B93" s="98" t="s">
-        <v>355</v>
-      </c>
-      <c r="C93" s="113" t="s">
-        <v>356</v>
-      </c>
-      <c r="D93" s="113" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B94" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="C94" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D94" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="96" t="s">
-        <v>334</v>
-      </c>
-      <c r="B95" s="98" t="s">
-        <v>359</v>
-      </c>
-      <c r="C95" s="115" t="s">
-        <v>360</v>
-      </c>
-      <c r="D95" s="115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="B96" s="98" t="s">
-        <v>361</v>
-      </c>
-      <c r="C96" s="112" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="112" t="s">
+      <c r="B97" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="121" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="B97" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="C97" s="113" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" s="113" t="s">
+    <row r="98">
+      <c r="A98" s="98" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C98" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="96" t="s">
-        <v>366</v>
-      </c>
-      <c r="B98" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C98" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D98" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="99">
-      <c r="A99" s="96" t="s">
-        <v>368</v>
-      </c>
-      <c r="B99" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="101" t="s">
-        <v>274</v>
+      <c r="A99" s="98" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" s="109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="108" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="96" t="s">
-        <v>370</v>
-      </c>
-      <c r="B100" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D100" s="101" t="s">
-        <v>274</v>
+      <c r="A100" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="108" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="96" t="s">
-        <v>372</v>
-      </c>
-      <c r="B101" s="104" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" s="101" t="s">
-        <v>274</v>
+      <c r="A101" s="98" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="108" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="B102" s="104" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" s="105"/>
-      <c r="D104" s="83" t="s">
+      <c r="A102" s="98" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="109" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="C103" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="84" t="s">
+      <c r="B105" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="C105" s="105"/>
-      <c r="D105" s="83" t="s">
+      <c r="C105" s="114"/>
+      <c r="D105" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C106" s="114"/>
+      <c r="D106" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="C106" s="105"/>
-      <c r="D106" s="102" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="87" t="s">
+      <c r="C107" s="114"/>
+      <c r="D107" s="106" t="s">
         <v>244</v>
-      </c>
-      <c r="C107" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" s="106" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="86"/>
+      <c r="D108" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="96" t="s">
-        <v>377</v>
-      </c>
-      <c r="B109" s="93" t="s">
-        <v>378</v>
-      </c>
-      <c r="C109" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D109" s="101" t="s">
-        <v>274</v>
-      </c>
+      <c r="A109" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" s="91"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="88"/>
     </row>
     <row r="110">
-      <c r="A110" s="96" t="s">
-        <v>379</v>
-      </c>
-      <c r="B110" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="102" t="s">
+      <c r="A110" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="B110" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="C110" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B111" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D111" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B113" s="81" t="s">
-        <v>376</v>
-      </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="102" t="s">
+      <c r="B113" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" s="84"/>
+      <c r="D113" s="106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="C114" s="105"/>
-      <c r="D114" s="102" t="s">
-        <v>382</v>
+      <c r="B114" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C114" s="114"/>
+      <c r="D114" s="106" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="87" t="s">
-        <v>278</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B115" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" s="114"/>
       <c r="D115" s="106" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B116" s="89"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="86"/>
+        <v>245</v>
+      </c>
+      <c r="B116" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D116" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="96" t="s">
-        <v>383</v>
-      </c>
-      <c r="B117" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="C117" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D117" s="101" t="s">
-        <v>274</v>
-      </c>
+      <c r="A117" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="88"/>
     </row>
     <row r="118">
-      <c r="A118" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="B118" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="C118" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" s="101" t="s">
-        <v>274</v>
+      <c r="A118" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="109" t="s">
+        <v>400</v>
+      </c>
+      <c r="C118" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="108" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="96" t="s">
-        <v>387</v>
-      </c>
-      <c r="B119" s="104" t="s">
-        <v>388</v>
-      </c>
-      <c r="C119" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D119" s="101" t="s">
-        <v>274</v>
+      <c r="A119" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="B119" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="C119" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="96" t="s">
-        <v>389</v>
-      </c>
-      <c r="B120" s="104" t="s">
-        <v>390</v>
-      </c>
-      <c r="C120" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D120" s="101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" s="105"/>
-      <c r="D122" s="83" t="s">
+      <c r="A120" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B120" s="109" t="s">
+        <v>404</v>
+      </c>
+      <c r="C120" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="B121" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="C121" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="84" t="s">
+      <c r="B123" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="B123" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="83" t="s">
+      <c r="C123" s="114"/>
+      <c r="D123" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="C124" s="114"/>
+      <c r="D124" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="C124" s="105"/>
-      <c r="D124" s="102" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="B125" s="87" t="s">
+      <c r="C125" s="114"/>
+      <c r="D125" s="106" t="s">
         <v>244</v>
-      </c>
-      <c r="C125" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" s="106" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="89"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="91"/>
+      <c r="D126" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="96" t="s">
-        <v>392</v>
-      </c>
-      <c r="B127" s="111" t="s">
-        <v>393</v>
-      </c>
-      <c r="C127" s="70" t="s">
+      <c r="A127" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="91"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="93"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B128" s="120" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D127" s="70" t="s">
+      <c r="D128" s="70" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="96" t="s">
-        <v>394</v>
-      </c>
-      <c r="B128" s="93" t="s">
-        <v>395</v>
-      </c>
-      <c r="C128" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" s="116" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C130" s="105"/>
-      <c r="D130" s="83" t="s">
+    <row r="129">
+      <c r="A129" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="B129" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="C129" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D129" s="125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="82" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="84" t="s">
+      <c r="B131" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="B131" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="C131" s="105"/>
-      <c r="D131" s="83" t="s">
+      <c r="C131" s="114"/>
+      <c r="D131" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="86" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B132" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="C132" s="105"/>
-      <c r="D132" s="102" t="s">
-        <v>382</v>
+      <c r="B132" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="C132" s="114"/>
+      <c r="D132" s="85" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="B133" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C133" s="87" t="s">
-        <v>245</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B133" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" s="114"/>
       <c r="D133" s="106" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="B134" s="89"/>
-      <c r="C134" s="117"/>
-      <c r="D134" s="118"/>
+      <c r="D134" s="115" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="96" t="s">
-        <v>392</v>
-      </c>
-      <c r="B135" s="111" t="s">
-        <v>396</v>
-      </c>
-      <c r="C135" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="D135" s="119" t="s">
-        <v>274</v>
-      </c>
+      <c r="A135" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="91"/>
+      <c r="C135" s="126"/>
+      <c r="D135" s="127"/>
     </row>
     <row r="136">
-      <c r="A136" s="96" t="s">
-        <v>394</v>
-      </c>
-      <c r="B136" s="93" t="s">
-        <v>397</v>
-      </c>
-      <c r="C136" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="D136" s="116" t="s">
-        <v>274</v>
+      <c r="A136" s="98" t="s">
+        <v>408</v>
+      </c>
+      <c r="B136" s="120" t="s">
+        <v>412</v>
+      </c>
+      <c r="C136" s="128" t="s">
+        <v>300</v>
+      </c>
+      <c r="D136" s="128" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="C137" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" s="125" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9528,30 +9679,30 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B125:C125"/>
     <mergeCell ref="B131:C131"/>
     <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069400000000004" right="0.70069400000000004" top="0.75208299999999995" bottom="0.75208299999999995" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -9560,113 +9711,113 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D00044-0037-441F-99EC-007D00EA009A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007200C6-0079-4173-AE1E-005200730099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0077003B-0071-43EB-8888-00F000F0000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003C002D-00F3-4524-BC54-00B7008D00A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C00A0-0093-4011-A5B2-00FA006400E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00590064-0021-4039-9BB3-000400FA001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004B00AE-0071-4CD1-BB36-00A9001A00CB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008A00EC-0024-4DE0-8434-00A900A90033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0079002C-0026-4A91-AC3F-0080007B0064}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B44</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00710094-00A9-4CD9-8AC7-003A002A00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004300FC-00CC-4852-AE48-00C800590065}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0024002A-003F-43C7-9F5F-003A007C00EB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004B0069-001F-4056-A011-00C2001C00D5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B66</xm:sqref>
+          <xm:sqref>B46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DD006E-007D-44A5-B8D2-00E3006200F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D70031-005F-45B1-92BE-00E000750050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00790099-007A-453E-A75E-009F00E300B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004F0006-00D2-4CCD-8C59-004C00D40084}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B82</xm:sqref>
+          <xm:sqref>B68</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FB00D3-0053-47B5-B720-009000CA0011}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C3000E-0040-43E6-9A49-006100F300B4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B83</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000600BA-00A9-42FF-A2A0-000900240081}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00630063-0076-4B8F-B3E2-003000490039}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B104</xm:sqref>
+          <xm:sqref>B84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006600E2-0020-4B64-9540-001200C50095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00040094-00C3-4F2B-ACD5-00FD009800FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B105</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00870050-00E2-4B01-BDD1-00E800C30070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A20021-007E-4D74-B7B9-00C0006000FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B112</xm:sqref>
+          <xm:sqref>B106</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FC00FE-001A-4A49-B0FD-007A00F8004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D80003-007E-40F7-B88C-00A4006900D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B113</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FA005B-0079-487F-9BDD-00EE008400EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006A0022-00A0-4896-A72D-008B003D001A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B122</xm:sqref>
+          <xm:sqref>B114</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DB00C7-00B4-443E-8666-001A004A003B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BC00DD-0045-4005-81E0-008800AB0018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B123</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009B001B-0003-43F1-A5F3-000B006E00A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00580086-00D1-484E-8FC9-006400460019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B130</xm:sqref>
+          <xm:sqref>B124</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E001F-00A3-4E5B-BFC5-008100DE00B1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006C00E3-002D-404D-B379-001A00E400FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B131</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{004A00AE-0046-4D34-8D5D-005A002000C2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9681,7 +9832,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="E55" zoomScale="100" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="C55" zoomScale="100" workbookViewId="0">
       <selection activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -9692,7 +9843,7 @@
     <col customWidth="1" min="3" max="3" width="48.142856999999999"/>
     <col customWidth="1" min="4" max="4" width="31.419643000000001"/>
     <col customWidth="1" min="5" max="5" style="1" width="36.848213999999999"/>
-    <col customWidth="1" min="6" max="6" style="79" width="141.84821400000001"/>
+    <col customWidth="1" min="6" max="6" style="81" width="141.84821400000001"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9706,13 +9857,13 @@
         <v>107</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>399</v>
+        <v>242</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="3">
@@ -9726,13 +9877,13 @@
         <v>124</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F3" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="4">
@@ -9746,13 +9897,13 @@
         <v>123</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F4" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5">
@@ -9766,13 +9917,13 @@
         <v>124</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="6">
@@ -9786,13 +9937,13 @@
         <v>123</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -9806,13 +9957,13 @@
         <v>124</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F7" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F7" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="8">
@@ -9826,13 +9977,13 @@
         <v>123</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9">
@@ -9846,13 +9997,13 @@
         <v>124</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F9" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F9" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="10">
@@ -9866,13 +10017,13 @@
         <v>123</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F10" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="11">
@@ -9886,13 +10037,13 @@
         <v>124</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F11" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="12">
@@ -9906,13 +10057,13 @@
         <v>123</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F12" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F12" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="13">
@@ -9920,19 +10071,19 @@
         <v>140</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F13" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="14">
@@ -9946,13 +10097,13 @@
         <v>142</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F14" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="15">
@@ -9966,13 +10117,13 @@
         <v>142</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="16">
@@ -9986,13 +10137,13 @@
         <v>142</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F16" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F16" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="17">
@@ -10006,13 +10157,13 @@
         <v>142</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F17" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="18">
@@ -10026,13 +10177,13 @@
         <v>142</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F18" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F18" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="19">
@@ -10046,13 +10197,13 @@
         <v>142</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="20">
@@ -10066,13 +10217,13 @@
         <v>159</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="122" t="s">
-        <v>407</v>
+        <v>422</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="21">
@@ -10086,13 +10237,13 @@
         <v>162</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="F21" s="122" t="s">
-        <v>409</v>
+        <v>424</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="22">
@@ -10106,13 +10257,13 @@
         <v>162</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22" s="122" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="23">
@@ -10126,13 +10277,13 @@
         <v>162</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" s="122" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="F23" s="131" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="24">
@@ -10146,13 +10297,13 @@
         <v>162</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" s="122" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="25">
@@ -10166,13 +10317,13 @@
         <v>162</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="F25" s="122" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="26">
@@ -10186,13 +10337,13 @@
         <v>124</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F26" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="27">
@@ -10206,13 +10357,13 @@
         <v>123</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F27" s="121" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="28">
@@ -10226,13 +10377,13 @@
         <v>179</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28" s="123" t="s">
-        <v>413</v>
+        <v>428</v>
+      </c>
+      <c r="F28" s="132" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="29">
@@ -10246,13 +10397,13 @@
         <v>179</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>414</v>
-      </c>
-      <c r="F29" s="123" t="s">
-        <v>415</v>
+        <v>430</v>
+      </c>
+      <c r="F29" s="132" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="30">
@@ -10266,13 +10417,13 @@
         <v>179</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>416</v>
-      </c>
-      <c r="F30" s="123" t="s">
-        <v>417</v>
+        <v>432</v>
+      </c>
+      <c r="F30" s="132" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="31">
@@ -10286,13 +10437,13 @@
         <v>184</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>418</v>
-      </c>
-      <c r="F31" s="123" t="s">
-        <v>419</v>
+        <v>434</v>
+      </c>
+      <c r="F31" s="132" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32">
@@ -10306,13 +10457,13 @@
         <v>188</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>420</v>
-      </c>
-      <c r="F32" s="123" t="s">
-        <v>421</v>
+        <v>436</v>
+      </c>
+      <c r="F32" s="132" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="33">
@@ -10326,18 +10477,18 @@
         <v>191</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E33" s="70" t="s">
-        <v>422</v>
-      </c>
-      <c r="F33" s="123" t="s">
-        <v>423</v>
+        <v>438</v>
+      </c>
+      <c r="F33" s="132" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="70" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B34" s="70" t="s">
         <v>192</v>
@@ -10346,13 +10497,13 @@
         <v>191</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>422</v>
-      </c>
-      <c r="F34" s="123" t="s">
-        <v>423</v>
+        <v>438</v>
+      </c>
+      <c r="F34" s="132" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="35">
@@ -10366,13 +10517,13 @@
         <v>194</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="F35" s="123" t="s">
-        <v>426</v>
+        <v>441</v>
+      </c>
+      <c r="F35" s="132" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="36">
@@ -10386,18 +10537,18 @@
         <v>194</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="F36" s="123" t="s">
-        <v>428</v>
+        <v>443</v>
+      </c>
+      <c r="F36" s="132" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="70" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="B37" s="70" t="s">
         <v>33</v>
@@ -10406,13 +10557,13 @@
         <v>194</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>429</v>
-      </c>
-      <c r="F37" s="123" t="s">
-        <v>430</v>
+        <v>445</v>
+      </c>
+      <c r="F37" s="132" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="38">
@@ -10426,13 +10577,13 @@
         <v>194</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" s="123" t="s">
-        <v>428</v>
+        <v>443</v>
+      </c>
+      <c r="F38" s="132" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="39">
@@ -10446,13 +10597,13 @@
         <v>194</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="F39" s="123" t="s">
-        <v>428</v>
+        <v>443</v>
+      </c>
+      <c r="F39" s="132" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="40">
@@ -10466,13 +10617,13 @@
         <v>188</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="F40" s="124" t="s">
-        <v>421</v>
+        <v>436</v>
+      </c>
+      <c r="F40" s="133" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="41">
@@ -10486,13 +10637,13 @@
         <v>205</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="F41" s="124" t="s">
-        <v>433</v>
+        <v>448</v>
+      </c>
+      <c r="F41" s="133" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="42">
@@ -10506,13 +10657,13 @@
         <v>207</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="F42" s="124" t="s">
-        <v>436</v>
+        <v>451</v>
+      </c>
+      <c r="F42" s="133" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="43">
@@ -10526,13 +10677,13 @@
         <v>207</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="F43" s="124" t="s">
-        <v>436</v>
+        <v>451</v>
+      </c>
+      <c r="F43" s="133" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="44">
@@ -10546,13 +10697,13 @@
         <v>207</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44" s="124" t="s">
-        <v>438</v>
+        <v>453</v>
+      </c>
+      <c r="F44" s="133" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="45">
@@ -10566,13 +10717,13 @@
         <v>207</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="F45" s="124" t="s">
-        <v>436</v>
+        <v>451</v>
+      </c>
+      <c r="F45" s="133" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="46">
@@ -10586,13 +10737,13 @@
         <v>207</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="F46" s="124" t="s">
-        <v>436</v>
+        <v>451</v>
+      </c>
+      <c r="F46" s="133" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="47">
@@ -10606,13 +10757,13 @@
         <v>207</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="F47" s="125" t="s">
-        <v>436</v>
+        <v>451</v>
+      </c>
+      <c r="F47" s="134" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="48">
@@ -10626,13 +10777,13 @@
         <v>188</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="F48" s="126" t="s">
-        <v>421</v>
+        <v>436</v>
+      </c>
+      <c r="F48" s="135" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="49">
@@ -10646,13 +10797,13 @@
         <v>207</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="F49" s="126" t="s">
-        <v>440</v>
+        <v>455</v>
+      </c>
+      <c r="F49" s="135" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="50">
@@ -10666,13 +10817,13 @@
         <v>220</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="126" t="s">
-        <v>443</v>
+        <v>458</v>
+      </c>
+      <c r="F50" s="135" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="51">
@@ -10686,13 +10837,13 @@
         <v>220</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="F51" s="126" t="s">
-        <v>443</v>
+        <v>458</v>
+      </c>
+      <c r="F51" s="135" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="52">
@@ -10706,13 +10857,13 @@
         <v>207</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="F52" s="127" t="s">
-        <v>440</v>
+        <v>455</v>
+      </c>
+      <c r="F52" s="136" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="53">
@@ -10726,13 +10877,13 @@
         <v>207</v>
       </c>
       <c r="D53" s="71" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="F53" s="127" t="s">
-        <v>440</v>
+        <v>455</v>
+      </c>
+      <c r="F53" s="136" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="54">
@@ -10746,13 +10897,13 @@
         <v>220</v>
       </c>
       <c r="D54" s="71" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="F54" s="127" t="s">
-        <v>443</v>
+        <v>458</v>
+      </c>
+      <c r="F54" s="136" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="55">
@@ -10766,213 +10917,213 @@
         <v>220</v>
       </c>
       <c r="D55" s="71" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="127" t="s">
-        <v>443</v>
+        <v>458</v>
+      </c>
+      <c r="F55" s="136" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="65" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="F56" s="121" t="s">
-        <v>448</v>
+        <v>463</v>
+      </c>
+      <c r="F56" s="130" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="65" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C57" s="63" t="s">
         <v>159</v>
       </c>
       <c r="D57" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="F57" s="121" t="s">
-        <v>452</v>
+        <v>467</v>
+      </c>
+      <c r="F57" s="130" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="65" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="C58" s="63" t="s">
         <v>159</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="F58" s="121" t="s">
-        <v>452</v>
+        <v>467</v>
+      </c>
+      <c r="F58" s="130" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D59" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E59" s="63">
         <v>1036100000</v>
       </c>
-      <c r="F59" s="121" t="s">
-        <v>459</v>
+      <c r="F59" s="130" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D60" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E60" s="63">
         <v>1040880000</v>
       </c>
-      <c r="F60" s="121" t="s">
-        <v>460</v>
+      <c r="F60" s="130" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D61" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E61" s="63">
         <v>2429780000</v>
       </c>
-      <c r="F61" s="121" t="s">
-        <v>461</v>
+      <c r="F61" s="130" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D62" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E62" s="63">
         <v>1040800000</v>
       </c>
-      <c r="F62" s="121" t="s">
-        <v>462</v>
+      <c r="F62" s="130" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D63" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E63" s="63">
         <v>2896090000</v>
       </c>
-      <c r="F63" s="121" t="s">
-        <v>463</v>
+      <c r="F63" s="130" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E64" s="63">
         <v>1023760000</v>
       </c>
-      <c r="F64" s="121" t="s">
-        <v>464</v>
+      <c r="F64" s="130" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="65" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E65" s="63">
         <v>1886580000</v>
       </c>
-      <c r="F65" s="121" t="s">
-        <v>466</v>
+      <c r="F65" s="130" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="66">
@@ -10986,113 +11137,133 @@
         <v>119</v>
       </c>
       <c r="D66" s="63" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="E66" s="63" t="s">
-        <v>468</v>
-      </c>
-      <c r="F66" s="121" t="s">
-        <v>469</v>
+        <v>484</v>
+      </c>
+      <c r="F66" s="130" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="63" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D67" s="63" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="E67" s="63" t="s">
-        <v>474</v>
-      </c>
-      <c r="F67" s="121" t="s">
-        <v>475</v>
+        <v>490</v>
+      </c>
+      <c r="F67" s="130" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="63" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D68" s="63" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="E68" s="63" t="s">
-        <v>478</v>
-      </c>
-      <c r="F68" s="121" t="s">
-        <v>479</v>
+        <v>494</v>
+      </c>
+      <c r="F68" s="130" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="63" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D69" s="63" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>482</v>
-      </c>
-      <c r="F69" s="121" t="s">
-        <v>483</v>
+        <v>498</v>
+      </c>
+      <c r="F69" s="130" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="63" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D70" s="63" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="E70" s="63" t="s">
-        <v>486</v>
-      </c>
-      <c r="F70" s="121" t="s">
-        <v>487</v>
+        <v>502</v>
+      </c>
+      <c r="F70" s="130" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="137" t="s">
+        <v>504</v>
+      </c>
+      <c r="B71" s="137" t="s">
+        <v>505</v>
+      </c>
+      <c r="C71" s="137" t="s">
         <v>488</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="D71" s="137" t="s">
         <v>489</v>
       </c>
-      <c r="C71" s="63" t="s">
-        <v>472</v>
-      </c>
-      <c r="D71" s="63" t="s">
-        <v>473</v>
-      </c>
-      <c r="E71" s="63" t="s">
-        <v>490</v>
-      </c>
-      <c r="F71" s="121" t="s">
-        <v>491</v>
+      <c r="E71" s="137" t="s">
+        <v>506</v>
+      </c>
+      <c r="F71" s="138" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" ht="15.4">
+      <c r="A72" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="B72" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="139" t="s">
+        <v>509</v>
+      </c>
+      <c r="D72" s="139" t="s">
+        <v>416</v>
+      </c>
+      <c r="E72" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="F72" s="141" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -11198,7 +11369,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E80012-0056-4310-9B81-007100C6007B}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E60016-008C-4308-AE48-000A00D800EC}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11207,7 +11378,7 @@
           </x14:formula2>
           <xm:sqref>D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00230026-00DE-42FA-85AA-008200190033}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005B003C-0074-4D22-99F1-00C000AF001E}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f/>
           </x14:formula1>
@@ -11216,7 +11387,7 @@
           </x14:formula2>
           <xm:sqref>E20:F20 D48 D49 D50 D51 D52 D53 D54 F54 D55 F55</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D0001-0086-48D6-A230-0090000F009C}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006600B7-00F6-46AF-9977-0049008C008A}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11225,7 +11396,7 @@
           </x14:formula2>
           <xm:sqref>D56 D57 D58 D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0008003D-0099-41B4-8EE2-002C00A1008D}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E90010-0010-4331-9DD7-002600190077}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11234,7 +11405,7 @@
           </x14:formula2>
           <xm:sqref>D60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B800E9-00E8-457A-95F1-001A000F0070}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0046-0041-46FC-B273-000A004500C0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11243,7 +11414,7 @@
           </x14:formula2>
           <xm:sqref>D61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00280006-0048-4F62-B076-00D2005B00C6}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0091004B-000E-4FBA-BF98-005D00C20055}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11252,7 +11423,7 @@
           </x14:formula2>
           <xm:sqref>D62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0076000B-0012-4677-98EE-000000CC00A0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AE0086-0081-4CE7-9CED-00BB008800B9}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11261,7 +11432,7 @@
           </x14:formula2>
           <xm:sqref>D63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E20061-00A2-461C-ADB7-0004006C0027}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0031004F-00A5-4855-B402-007600500082}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11270,7 +11441,7 @@
           </x14:formula2>
           <xm:sqref>D64 D66 D67 D68 D69 D70 D71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005200E7-00D8-4685-A395-0072008A0015}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00300076-000B-4EA9-B2CD-0010001A00DC}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Data!$K$4:$K$19</xm:f>
           </x14:formula1>
@@ -11307,25 +11478,25 @@
   <sheetData>
     <row r="4">
       <c r="C4" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="128" t="s">
-        <v>495</v>
-      </c>
-      <c r="I4" s="128" t="s">
+      <c r="G4" s="142" t="s">
+        <v>515</v>
+      </c>
+      <c r="I4" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="128" t="s">
-        <v>496</v>
+      <c r="J4" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>185</v>
@@ -11333,206 +11504,206 @@
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="128" t="s">
-        <v>499</v>
-      </c>
-      <c r="I5" s="128" t="s">
+      <c r="G5" s="142" t="s">
+        <v>519</v>
+      </c>
+      <c r="I5" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="128" t="s">
-        <v>496</v>
+      <c r="J5" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="128" t="s">
-        <v>504</v>
-      </c>
-      <c r="I6" s="128" t="s">
+      <c r="G6" s="142" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="128" t="s">
-        <v>496</v>
+      <c r="J6" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="1" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="128" t="s">
-        <v>508</v>
-      </c>
-      <c r="I7" s="128" t="s">
+      <c r="G7" s="142" t="s">
+        <v>528</v>
+      </c>
+      <c r="I7" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="128" t="s">
-        <v>496</v>
+      <c r="J7" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="1" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" s="128" t="s">
-        <v>512</v>
-      </c>
-      <c r="I8" s="128" t="s">
-        <v>513</v>
-      </c>
-      <c r="J8" s="128" t="s">
-        <v>496</v>
+      <c r="G8" s="142" t="s">
+        <v>532</v>
+      </c>
+      <c r="I8" s="142" t="s">
+        <v>533</v>
+      </c>
+      <c r="J8" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="F9" s="1">
         <v>60</v>
       </c>
-      <c r="G9" s="128" t="s">
-        <v>518</v>
-      </c>
-      <c r="I9" s="128" t="s">
-        <v>519</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>496</v>
+      <c r="G9" s="142" t="s">
+        <v>538</v>
+      </c>
+      <c r="I9" s="142" t="s">
+        <v>539</v>
+      </c>
+      <c r="J9" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="1" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G10" s="128" t="s">
-        <v>523</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>524</v>
-      </c>
-      <c r="J10" s="128" t="s">
-        <v>496</v>
+        <v>542</v>
+      </c>
+      <c r="G10" s="142" t="s">
+        <v>543</v>
+      </c>
+      <c r="I10" s="142" t="s">
+        <v>544</v>
+      </c>
+      <c r="J10" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G11" s="128" t="s">
-        <v>528</v>
-      </c>
-      <c r="I11" s="128" t="s">
-        <v>529</v>
-      </c>
-      <c r="J11" s="128" t="s">
-        <v>496</v>
+        <v>547</v>
+      </c>
+      <c r="G11" s="142" t="s">
+        <v>548</v>
+      </c>
+      <c r="I11" s="142" t="s">
+        <v>549</v>
+      </c>
+      <c r="J11" s="142" t="s">
+        <v>516</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="1" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G12" s="128" t="s">
-        <v>533</v>
-      </c>
-      <c r="I12" s="128" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12" s="142" t="s">
+        <v>553</v>
+      </c>
+      <c r="I12" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="J12" s="128" t="s">
-        <v>534</v>
+      <c r="J12" s="142" t="s">
+        <v>554</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="1" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>538</v>
-      </c>
-      <c r="I13" s="128" t="s">
-        <v>539</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>534</v>
+        <v>557</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>558</v>
+      </c>
+      <c r="I13" s="142" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="142" t="s">
+        <v>554</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>120</v>
@@ -11540,99 +11711,99 @@
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>542</v>
-      </c>
-      <c r="I14" s="128" t="s">
+        <v>560</v>
+      </c>
+      <c r="G14" s="142" t="s">
+        <v>561</v>
+      </c>
+      <c r="I14" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="128" t="s">
-        <v>543</v>
+      <c r="J14" s="142" t="s">
+        <v>562</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>547</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>548</v>
-      </c>
-      <c r="J15" s="128" t="s">
-        <v>543</v>
+        <v>565</v>
+      </c>
+      <c r="G15" s="142" t="s">
+        <v>566</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>567</v>
+      </c>
+      <c r="J15" s="142" t="s">
+        <v>562</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>551</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>552</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>553</v>
+        <v>569</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>570</v>
+      </c>
+      <c r="I16" s="142" t="s">
+        <v>571</v>
+      </c>
+      <c r="J16" s="142" t="s">
+        <v>572</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G17" s="128" t="s">
-        <v>557</v>
-      </c>
-      <c r="I17" s="128" t="s">
-        <v>558</v>
-      </c>
-      <c r="J17" s="128" t="s">
-        <v>553</v>
+        <v>575</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="142" t="s">
+        <v>577</v>
+      </c>
+      <c r="J17" s="142" t="s">
+        <v>572</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="1" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G18" s="128" t="s">
-        <v>562</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>563</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>564</v>
+        <v>580</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>581</v>
+      </c>
+      <c r="I18" s="142" t="s">
+        <v>582</v>
+      </c>
+      <c r="J18" s="142" t="s">
+        <v>583</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>113</v>
@@ -11640,257 +11811,257 @@
     </row>
     <row r="19">
       <c r="C19" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>566</v>
-      </c>
-      <c r="I19" s="128" t="s">
+        <v>584</v>
+      </c>
+      <c r="G19" s="142" t="s">
+        <v>585</v>
+      </c>
+      <c r="I19" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="128" t="s">
-        <v>567</v>
+      <c r="J19" s="142" t="s">
+        <v>586</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G20" s="128" t="s">
-        <v>570</v>
-      </c>
-      <c r="I20" s="128" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="142" t="s">
+        <v>589</v>
+      </c>
+      <c r="I20" s="142" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="128" t="s">
-        <v>571</v>
+      <c r="J20" s="142" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="128" t="s">
-        <v>572</v>
-      </c>
-      <c r="I21" s="128" t="s">
-        <v>573</v>
-      </c>
-      <c r="J21" s="128" t="s">
-        <v>571</v>
+      <c r="G21" s="142" t="s">
+        <v>591</v>
+      </c>
+      <c r="I21" s="142" t="s">
+        <v>592</v>
+      </c>
+      <c r="J21" s="142" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G22" s="128" t="s">
-        <v>575</v>
-      </c>
-      <c r="I22" s="128" t="s">
-        <v>576</v>
-      </c>
-      <c r="J22" s="128" t="s">
-        <v>577</v>
+        <v>593</v>
+      </c>
+      <c r="G22" s="142" t="s">
+        <v>594</v>
+      </c>
+      <c r="I22" s="142" t="s">
+        <v>595</v>
+      </c>
+      <c r="J22" s="142" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G23" s="128" t="s">
-        <v>579</v>
-      </c>
-      <c r="I23" s="128" t="s">
-        <v>580</v>
-      </c>
-      <c r="J23" s="128" t="s">
-        <v>577</v>
+        <v>597</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>598</v>
+      </c>
+      <c r="I23" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="J23" s="142" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G24" s="128" t="s">
-        <v>582</v>
-      </c>
-      <c r="I24" s="128" t="s">
-        <v>583</v>
-      </c>
-      <c r="J24" s="128" t="s">
-        <v>577</v>
+        <v>600</v>
+      </c>
+      <c r="G24" s="142" t="s">
+        <v>601</v>
+      </c>
+      <c r="I24" s="142" t="s">
+        <v>602</v>
+      </c>
+      <c r="J24" s="142" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G25" s="128" t="s">
-        <v>585</v>
-      </c>
-      <c r="I25" s="128" t="s">
-        <v>586</v>
-      </c>
-      <c r="J25" s="128" t="s">
-        <v>587</v>
+        <v>603</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>604</v>
+      </c>
+      <c r="I25" s="142" t="s">
+        <v>605</v>
+      </c>
+      <c r="J25" s="142" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" s="1" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I26" s="128" t="s">
+        <v>608</v>
+      </c>
+      <c r="I26" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="128" t="s">
-        <v>590</v>
+      <c r="J26" s="142" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="1" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I27" s="128" t="s">
-        <v>593</v>
-      </c>
-      <c r="J27" s="128" t="s">
-        <v>594</v>
+        <v>611</v>
+      </c>
+      <c r="I27" s="142" t="s">
+        <v>612</v>
+      </c>
+      <c r="J27" s="142" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I28" s="128" t="s">
-        <v>457</v>
-      </c>
-      <c r="J28" s="128" t="s">
-        <v>597</v>
+        <v>615</v>
+      </c>
+      <c r="I28" s="142" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" s="142" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="1" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I29" s="128" t="s">
-        <v>600</v>
-      </c>
-      <c r="J29" s="128" t="s">
-        <v>597</v>
+        <v>618</v>
+      </c>
+      <c r="I29" s="142" t="s">
+        <v>619</v>
+      </c>
+      <c r="J29" s="142" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="128" t="s">
-        <v>602</v>
-      </c>
-      <c r="J30" s="128" t="s">
-        <v>603</v>
+      <c r="I30" s="142" t="s">
+        <v>621</v>
+      </c>
+      <c r="J30" s="142" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="128" t="s">
-        <v>605</v>
-      </c>
-      <c r="J31" s="128" t="s">
-        <v>606</v>
+      <c r="I31" s="142" t="s">
+        <v>624</v>
+      </c>
+      <c r="J31" s="142" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" s="1" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I32" s="128" t="s">
-        <v>609</v>
-      </c>
-      <c r="J32" s="128" t="s">
-        <v>610</v>
+        <v>627</v>
+      </c>
+      <c r="I32" s="142" t="s">
+        <v>628</v>
+      </c>
+      <c r="J32" s="142" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I33" s="128" t="s">
-        <v>613</v>
-      </c>
-      <c r="J33" s="128" t="s">
-        <v>614</v>
+        <v>631</v>
+      </c>
+      <c r="I33" s="142" t="s">
+        <v>632</v>
+      </c>
+      <c r="J33" s="142" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I34" s="128" t="s">
-        <v>617</v>
-      </c>
-      <c r="J34" s="128" t="s">
-        <v>603</v>
+        <v>635</v>
+      </c>
+      <c r="I34" s="142" t="s">
+        <v>636</v>
+      </c>
+      <c r="J34" s="142" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="I35" s="128" t="s">
-        <v>446</v>
-      </c>
-      <c r="J35" s="128" t="s">
-        <v>620</v>
+        <v>638</v>
+      </c>
+      <c r="I35" s="142" t="s">
+        <v>462</v>
+      </c>
+      <c r="J35" s="142" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="1" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="I36" s="128" t="s">
-        <v>472</v>
-      </c>
-      <c r="J36" s="128" t="s">
-        <v>623</v>
+        <v>641</v>
+      </c>
+      <c r="I36" s="142" t="s">
+        <v>488</v>
+      </c>
+      <c r="J36" s="142" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="37">
@@ -11898,523 +12069,523 @@
         <v>92</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I37" s="128" t="s">
-        <v>625</v>
-      </c>
-      <c r="J37" s="128" t="s">
-        <v>626</v>
+        <v>643</v>
+      </c>
+      <c r="I37" s="142" t="s">
+        <v>644</v>
+      </c>
+      <c r="J37" s="142" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" s="1" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I38" s="128" t="s">
-        <v>629</v>
-      </c>
-      <c r="J38" s="128" t="s">
-        <v>630</v>
+        <v>647</v>
+      </c>
+      <c r="I38" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="J38" s="142" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="1" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I39" s="128" t="s">
-        <v>633</v>
-      </c>
-      <c r="J39" s="128" t="s">
-        <v>630</v>
+        <v>651</v>
+      </c>
+      <c r="I39" s="142" t="s">
+        <v>652</v>
+      </c>
+      <c r="J39" s="142" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="1" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I40" s="128" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="128" t="s">
-        <v>543</v>
+      <c r="J40" s="142" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="1" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I41" s="128" t="s">
-        <v>638</v>
-      </c>
-      <c r="J41" s="128" t="s">
-        <v>543</v>
+        <v>656</v>
+      </c>
+      <c r="I41" s="142" t="s">
+        <v>657</v>
+      </c>
+      <c r="J41" s="142" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="1" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I42" s="128" t="s">
-        <v>641</v>
-      </c>
-      <c r="J42" s="128" t="s">
-        <v>642</v>
+        <v>659</v>
+      </c>
+      <c r="I42" s="142" t="s">
+        <v>660</v>
+      </c>
+      <c r="J42" s="142" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="1" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I43" s="128" t="s">
+        <v>663</v>
+      </c>
+      <c r="I43" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="128" t="s">
-        <v>590</v>
+      <c r="J43" s="142" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="1" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I44" s="128" t="s">
-        <v>647</v>
-      </c>
-      <c r="J44" s="128" t="s">
-        <v>590</v>
+        <v>665</v>
+      </c>
+      <c r="I44" s="142" t="s">
+        <v>666</v>
+      </c>
+      <c r="J44" s="142" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="1" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I45" s="128" t="s">
-        <v>650</v>
-      </c>
-      <c r="J45" s="128" t="s">
-        <v>590</v>
+        <v>668</v>
+      </c>
+      <c r="I45" s="142" t="s">
+        <v>669</v>
+      </c>
+      <c r="J45" s="142" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="1" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I46" s="128" t="s">
-        <v>653</v>
-      </c>
-      <c r="J46" s="128" t="s">
-        <v>587</v>
+        <v>671</v>
+      </c>
+      <c r="I46" s="142" t="s">
+        <v>672</v>
+      </c>
+      <c r="J46" s="142" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="128" t="s">
-        <v>655</v>
-      </c>
-      <c r="J47" s="128" t="s">
-        <v>656</v>
+        <v>673</v>
+      </c>
+      <c r="I47" s="142" t="s">
+        <v>674</v>
+      </c>
+      <c r="J47" s="142" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I48" s="128" t="s">
-        <v>658</v>
-      </c>
-      <c r="J48" s="128" t="s">
-        <v>626</v>
+        <v>676</v>
+      </c>
+      <c r="I48" s="142" t="s">
+        <v>677</v>
+      </c>
+      <c r="J48" s="142" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="I49" s="128" t="s">
-        <v>660</v>
-      </c>
-      <c r="J49" s="128" t="s">
-        <v>661</v>
+        <v>678</v>
+      </c>
+      <c r="I49" s="142" t="s">
+        <v>679</v>
+      </c>
+      <c r="J49" s="142" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I50" s="128" t="s">
-        <v>663</v>
-      </c>
-      <c r="J50" s="128" t="s">
-        <v>661</v>
+        <v>681</v>
+      </c>
+      <c r="I50" s="142" t="s">
+        <v>682</v>
+      </c>
+      <c r="J50" s="142" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="I51" s="128" t="s">
-        <v>665</v>
-      </c>
-      <c r="J51" s="128" t="s">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="I51" s="142" t="s">
+        <v>684</v>
+      </c>
+      <c r="J51" s="142" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="52">
       <c r="C52" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I52" s="128" t="s">
-        <v>668</v>
-      </c>
-      <c r="J52" s="128" t="s">
-        <v>614</v>
+        <v>686</v>
+      </c>
+      <c r="I52" s="142" t="s">
+        <v>687</v>
+      </c>
+      <c r="J52" s="142" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="53">
       <c r="C53" s="1" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="1" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>220</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="1" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56">
       <c r="C56" s="1" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="1" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58">
       <c r="C58" s="1" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59">
       <c r="C59" s="1" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60">
       <c r="C60" s="1" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="1" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62">
       <c r="C62" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" s="1" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64">
       <c r="C64" s="1" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65">
       <c r="C65" s="1" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" s="1" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="1" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" s="1" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70">
       <c r="C70" s="1" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71">
       <c r="C71" s="1" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72">
       <c r="C72" s="1" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73">
       <c r="C73" s="1" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74">
       <c r="C74" s="1" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
     </row>
     <row r="75">
       <c r="C75" s="1" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="76">
       <c r="C76" s="1" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="77">
       <c r="C77" s="1" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78">
       <c r="C78" s="1" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
     </row>
     <row r="79">
       <c r="C79" s="1" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80">
       <c r="C80" s="1" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81">
       <c r="C81" s="1" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82">
       <c r="C82" s="1" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83">
       <c r="C83" s="1" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" s="1" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86">
       <c r="C86" s="1" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87">
       <c r="C87" s="1" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88">
       <c r="C88" s="1" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89">
       <c r="C89" s="1" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" s="1" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="91">
       <c r="C91" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92">
       <c r="C92" s="1" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" s="1" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
     </row>
     <row r="94">
       <c r="C94" s="1" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" s="1" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="96">
       <c r="C96" s="1" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
     </row>
     <row r="97">
       <c r="C97" s="1" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98">
       <c r="C98" s="1" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
     </row>
     <row r="99">
       <c r="C99" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="100">
       <c r="C100" s="1" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" s="1" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102">
       <c r="C102" s="1" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103">
       <c r="C103" s="1" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
     </row>
     <row r="104">
       <c r="C104" s="1" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="1" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="1" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" s="1" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="1" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="1" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" s="1" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" s="1" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="113">
@@ -12424,68 +12595,68 @@
     </row>
     <row r="114">
       <c r="C114" s="1" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="1" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="117">
-      <c r="H117" s="129"/>
-      <c r="I117" s="128"/>
-      <c r="J117" s="130"/>
+      <c r="H117" s="143"/>
+      <c r="I117" s="142"/>
+      <c r="J117" s="144"/>
     </row>
     <row r="118">
-      <c r="H118" s="129"/>
-      <c r="I118" s="128"/>
-      <c r="J118" s="130"/>
+      <c r="H118" s="143"/>
+      <c r="I118" s="142"/>
+      <c r="J118" s="144"/>
     </row>
     <row r="119">
-      <c r="H119" s="129"/>
-      <c r="I119" s="128"/>
-      <c r="J119" s="130"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="142"/>
+      <c r="J119" s="144"/>
     </row>
     <row r="120">
-      <c r="H120" s="129"/>
-      <c r="I120" s="128"/>
-      <c r="J120" s="130"/>
+      <c r="H120" s="143"/>
+      <c r="I120" s="142"/>
+      <c r="J120" s="144"/>
     </row>
     <row r="121">
-      <c r="H121" s="129"/>
-      <c r="I121" s="128"/>
-      <c r="J121" s="130"/>
+      <c r="H121" s="143"/>
+      <c r="I121" s="142"/>
+      <c r="J121" s="144"/>
     </row>
     <row r="122">
-      <c r="H122" s="129"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="130"/>
+      <c r="H122" s="143"/>
+      <c r="I122" s="142"/>
+      <c r="J122" s="144"/>
     </row>
     <row r="123">
-      <c r="H123" s="129"/>
-      <c r="I123" s="128"/>
-      <c r="J123" s="130"/>
+      <c r="H123" s="143"/>
+      <c r="I123" s="142"/>
+      <c r="J123" s="144"/>
     </row>
     <row r="124">
-      <c r="H124" s="129"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="130"/>
+      <c r="H124" s="143"/>
+      <c r="I124" s="142"/>
+      <c r="J124" s="144"/>
     </row>
     <row r="125">
-      <c r="H125" s="129"/>
-      <c r="I125" s="128"/>
-      <c r="J125" s="130"/>
+      <c r="H125" s="143"/>
+      <c r="I125" s="142"/>
+      <c r="J125" s="144"/>
     </row>
     <row r="126">
-      <c r="H126" s="129"/>
-      <c r="I126" s="128"/>
-      <c r="J126" s="130"/>
+      <c r="H126" s="143"/>
+      <c r="I126" s="142"/>
+      <c r="J126" s="144"/>
     </row>
     <row r="127">
-      <c r="H127" s="129"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="130"/>
+      <c r="H127" s="143"/>
+      <c r="I127" s="142"/>
+      <c r="J127" s="144"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
